--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="F1:N22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -586,6 +587,30 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2440,8 +2465,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2606,11 +2631,21 @@
       <c r="I8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
@@ -2736,11 +2771,21 @@
       <c r="I14" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
@@ -2786,11 +2831,21 @@
       <c r="I16" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="J16" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
@@ -2836,11 +2891,21 @@
       <c r="I18" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="35"/>
@@ -2888,11 +2953,21 @@
       <c r="I20" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="35"/>
@@ -2938,11 +3013,21 @@
       <c r="I22" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="35"/>
@@ -2988,11 +3073,21 @@
       <c r="I24" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="35"/>
@@ -3038,11 +3133,21 @@
       <c r="I26" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="41"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="J26" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="35"/>
@@ -3090,11 +3195,21 @@
       <c r="I28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="35"/>
@@ -3132,11 +3247,21 @@
       <c r="I30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="35"/>
@@ -3238,11 +3363,21 @@
       <c r="I34" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="41"/>
+      <c r="J34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="41" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="51"/>
@@ -3323,8 +3458,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3489,11 +3624,21 @@
       <c r="I8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="J8" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="51"/>
@@ -3545,11 +3690,21 @@
       <c r="I10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
@@ -3599,16 +3754,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -10,13 +10,13 @@
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
   <oleSize ref="F1:N22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -611,6 +611,10 @@
   </si>
   <si>
     <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3459,7 +3463,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3631,7 +3635,7 @@
         <v>107</v>
       </c>
       <c r="L8" s="60" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M8" s="60" t="s">
         <v>110</v>
@@ -3754,16 +3758,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:N22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="122">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -606,19 +605,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非ログイン時はなし</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Member</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2469,8 +2506,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2845,7 +2882,7 @@
         <v>108</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>108</v>
@@ -2905,7 +2942,7 @@
         <v>108</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="N18" s="13" t="s">
         <v>107</v>
@@ -2967,7 +3004,7 @@
         <v>107</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>107</v>
@@ -3027,10 +3064,10 @@
         <v>107</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -3078,16 +3115,16 @@
         <v>88</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="N24" s="13" t="s">
         <v>107</v>
@@ -3141,7 +3178,7 @@
         <v>107</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>107</v>
@@ -3150,7 +3187,7 @@
         <v>107</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -3209,10 +3246,10 @@
         <v>107</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -3232,7 +3269,9 @@
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="M29" s="59" t="s">
+        <v>112</v>
+      </c>
       <c r="N29" s="59"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -3261,7 +3300,7 @@
         <v>107</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="N30" s="13" t="s">
         <v>107</v>
@@ -3462,8 +3501,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3635,13 +3674,13 @@
         <v>107</v>
       </c>
       <c r="L8" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>110</v>
-      </c>
       <c r="N8" s="60" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3663,7 +3702,9 @@
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
       <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="61" t="s">
+        <v>114</v>
+      </c>
       <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -3771,7 +3812,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="E1:L22"/>
 </workbook>
 </file>
 
@@ -635,18 +636,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Member</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Member</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cart</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -655,7 +644,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Member</t>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name,MemberCode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2506,8 +2507,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" topLeftCell="G12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2882,7 +2883,7 @@
         <v>108</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>108</v>
@@ -2942,7 +2943,7 @@
         <v>108</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N18" s="13" t="s">
         <v>107</v>
@@ -3004,7 +3005,7 @@
         <v>107</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>107</v>
@@ -3064,7 +3065,7 @@
         <v>107</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N22" s="13" t="s">
         <v>110</v>
@@ -3124,7 +3125,7 @@
         <v>110</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N24" s="13" t="s">
         <v>107</v>
@@ -3187,7 +3188,7 @@
         <v>107</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -3246,7 +3247,7 @@
         <v>107</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N28" s="13" t="s">
         <v>110</v>
@@ -3501,7 +3502,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -3680,7 +3681,7 @@
         <v>113</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3799,16 +3800,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="E1:L22"/>
+  <oleSize ref="C10:J34"/>
 </workbook>
 </file>
 
@@ -1654,7 +1654,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1143518" cy="275717"/>
+    <xdr:ext cx="865622" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
@@ -1662,8 +1662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10791825" y="428625"/>
-          <a:ext cx="1143518" cy="275717"/>
+          <a:off x="10780619" y="428625"/>
+          <a:ext cx="865622" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,8 +1691,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>２０１７．０６．１２</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2017/06/16</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2507,8 +2507,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3502,8 +3502,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="C10:J34"/>
+  <oleSize ref="G4:O28"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="119">
   <si>
     <t>画面ID</t>
     <rPh sb="0" eb="2">
@@ -644,19 +644,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Name,MemberCode</t>
+    <t>Name,MemberCode,Cart</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2507,8 +2495,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2522,7 +2510,9 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
+    <col min="14" max="14" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3065,7 +3055,7 @@
         <v>107</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N22" s="13" t="s">
         <v>110</v>
@@ -3125,7 +3115,7 @@
         <v>110</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N24" s="13" t="s">
         <v>107</v>
@@ -3247,7 +3237,7 @@
         <v>107</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N28" s="13" t="s">
         <v>110</v>
@@ -3502,8 +3492,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3517,7 +3507,8 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
     <col min="9" max="9" width="30.375" customWidth="1"/>
-    <col min="10" max="14" width="15.375" customWidth="1"/>
+    <col min="10" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3681,7 +3672,7 @@
         <v>113</v>
       </c>
       <c r="N8" s="60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -3800,16 +3791,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/unfinished/100系_ユースケース構成.xlsx
+++ b/doc/unfinished/100系_ユースケース構成.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15210" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13320" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="UC100ログイン" sheetId="1" r:id="rId1"/>
     <sheet name="UC102ログアウト" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="G4:O28"/>
+  <oleSize ref="A10:G34"/>
 </workbook>
 </file>
 
@@ -2495,7 +2495,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3492,7 +3492,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -3791,16 +3791,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="H6:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
